--- a/data/income_statement/2digits/size/20_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/20_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>20-Manufacture of chemicals and chemical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>20-Manufacture of chemicals and chemical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2465866.96886</v>
+        <v>2588485.37795</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2676023.35151</v>
+        <v>2776438.36301</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2935434.75619</v>
+        <v>3057597.69645</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2726925.00032</v>
+        <v>2891070.94803</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3871207.05676</v>
+        <v>4187617.36949</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4131509.4579</v>
+        <v>4483460.99574</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4196168.56122</v>
+        <v>4622190.720939999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4216003.885129999</v>
+        <v>4636819.370970001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4517676.11742</v>
+        <v>5008225.97425</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10464183.92141</v>
+        <v>10841152.56463</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11422128.90642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11932354.37514</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14379256.216</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2191350.70299</v>
+        <v>2290601.99305</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2398392.19276</v>
+        <v>2472078.13138</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2668834.82113</v>
+        <v>2774056.02311</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2457273.91812</v>
+        <v>2597233.66527</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3366350.92263</v>
+        <v>3615611.18694</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3671147.99224</v>
+        <v>3979579.34556</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3601778.09962</v>
+        <v>3951447.33256</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3702325.80214</v>
+        <v>4053752.53916</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3812436.51437</v>
+        <v>4227094.44962</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8711125.004180001</v>
+        <v>9003206.06625</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9551646.255999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9912356.84223</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12116275.818</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>240747.63195</v>
+        <v>263815.84496</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>256616.53288</v>
+        <v>279661.61329</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>239710.05348</v>
+        <v>256864.09177</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>244940.0567700001</v>
+        <v>264291.9881</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>465954.50765</v>
+        <v>527934.67723</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>421673.43553</v>
+        <v>463860.42583</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>540830.09663</v>
+        <v>613928.83336</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>455336.41781</v>
+        <v>522035.63174</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>661869.92761</v>
+        <v>728676.90072</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1628360.46154</v>
+        <v>1707087.17124</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1720910.41964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1854266.65189</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2096129.362</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>33768.63392</v>
+        <v>34067.53994</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>21014.62587</v>
+        <v>24698.61834</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>26889.88158</v>
+        <v>26677.58157</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>24711.02543</v>
+        <v>29545.29466</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>38901.62648000001</v>
+        <v>44071.50532</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>38688.03013</v>
+        <v>40021.22435</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>53560.36497</v>
+        <v>56814.55501999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>58341.66518</v>
+        <v>61031.20007</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>43369.67544</v>
+        <v>52454.62391000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>124698.45569</v>
+        <v>130859.32714</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>149572.23078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>165730.88102</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>166851.036</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>50037.56415</v>
+        <v>62890.04019</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>55206.95354</v>
+        <v>62859.75482</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>64725.7986</v>
+        <v>75948.10599</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>48262.63912</v>
+        <v>58451.15590000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>68154.87497999999</v>
+        <v>81773.27592999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>59356.40611</v>
+        <v>77351.44047</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>69876.25821</v>
+        <v>84601.71928</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>67202.72676999999</v>
+        <v>78666.30332999998</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>74844.42049999999</v>
+        <v>84336.64839</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>252841.07458</v>
+        <v>265343.34762</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>251953.30238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>284162.0648399999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>435137.853</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>28756.24755</v>
+        <v>31478.99479</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>26103.5797</v>
+        <v>29678.77144</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>31970.75138</v>
+        <v>34324.95162</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>31241.88654</v>
+        <v>34861.21136</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>39196.38358</v>
+        <v>42277.32858</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>37444.38830999999</v>
+        <v>44139.30788</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>38885.04066999999</v>
+        <v>44857.99848</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>43469.86617999999</v>
+        <v>49347.91967</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>44737.6647</v>
+        <v>49163.16114</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>123773.90835</v>
+        <v>131751.73592</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>121849.98509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>126980.40719</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>295400.108</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>19300.57016</v>
+        <v>28680.77551</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>27301.22668</v>
+        <v>30706.55005999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>31012.83813</v>
+        <v>39249.9288</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>15041.55287</v>
+        <v>21180.22833</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>25825.25913</v>
+        <v>35971.06233</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>18826.09728</v>
+        <v>29749.42618</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>24031.61246</v>
+        <v>32464.11599</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>16521.20553</v>
+        <v>21955.91307</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>24104.97917</v>
+        <v>28729.43791</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>114387.93415</v>
+        <v>118623.87358</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>112899.88842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>139223.84012</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>117934.042</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1980.74644</v>
+        <v>2730.26989</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1802.14716</v>
+        <v>2474.43332</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1742.20909</v>
+        <v>2373.22557</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1979.19971</v>
+        <v>2409.71621</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3133.23227</v>
+        <v>3524.88502</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3085.92052</v>
+        <v>3462.70641</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6959.60508</v>
+        <v>7279.604809999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>7211.655060000001</v>
+        <v>7362.470590000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6001.77663</v>
+        <v>6444.04934</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>14679.23208</v>
+        <v>14967.73812</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>17203.42887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17957.81753</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>21803.703</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2415829.40471</v>
+        <v>2525595.33776</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2620816.39797</v>
+        <v>2713578.60819</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2870708.95759</v>
+        <v>2981649.59046</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2678662.3612</v>
+        <v>2832619.79213</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3803052.18178</v>
+        <v>4105844.09356</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4072153.05179</v>
+        <v>4406109.55527</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4126292.30301</v>
+        <v>4537589.00166</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4148801.15836</v>
+        <v>4558153.06764</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4442831.69692</v>
+        <v>4923889.325859999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10211342.84683</v>
+        <v>10575809.21701</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11170175.60404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11648192.3103</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13944118.363</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2035107.23561</v>
+        <v>2119657.36013</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2216702.49488</v>
+        <v>2289224.58592</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2439298.25788</v>
+        <v>2532292.50047</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2245539.4429</v>
+        <v>2367332.84131</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3167252.13312</v>
+        <v>3412908.54788</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3387946.85585</v>
+        <v>3663911.46161</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3394774.85355</v>
+        <v>3717165.10939</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3411146.60065</v>
+        <v>3725542.74624</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3672245.04721</v>
+        <v>4048704.87308</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8330385.69482</v>
+        <v>8603279.627739999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9105891.858409999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9474097.64236</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11326661.454</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1214389.8654</v>
+        <v>1277460.44532</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1437123.26361</v>
+        <v>1501943.58981</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1568141.5552</v>
+        <v>1639511.841</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1491634.46524</v>
+        <v>1572436.51122</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2109368.4554</v>
+        <v>2297978.70974</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2224975.61861</v>
+        <v>2432212.96587</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2067700.72718</v>
+        <v>2326046.5341</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2133699.83223</v>
+        <v>2395776.45101</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2180521.49589</v>
+        <v>2479620.89025</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5590191.90237</v>
+        <v>5827328.34327</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6119285.52951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6375936.312630001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7557786.32</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>783491.91477</v>
+        <v>804161.40462</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>732522.35249</v>
+        <v>738273.5666700001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>817893.9784799999</v>
+        <v>838420.8079200001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>713703.4953600001</v>
+        <v>752536.24156</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1013322.09477</v>
+        <v>1067324.14149</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1095619.9907</v>
+        <v>1164867.78324</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1274701.58674</v>
+        <v>1338146.27301</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1170996.33688</v>
+        <v>1219222.73511</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1398182.80485</v>
+        <v>1465712.80639</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2610933.98781</v>
+        <v>2648764.89004</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2810866.84932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2920744.17163</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3598472.377</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>31316.28144</v>
+        <v>31310.89967</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>42737.25862</v>
+        <v>43912.87011</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>47390.44873999999</v>
+        <v>47758.11757</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>34378.33058</v>
+        <v>34907.86854</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>38167.6421</v>
+        <v>40918.89229</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>58220.01640000001</v>
+        <v>57197.37658</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>44731.99247</v>
+        <v>44339.55504</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>89496.14949</v>
+        <v>92910.64691</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>67818.61748</v>
+        <v>74761.69656</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>103868.5871</v>
+        <v>100345.23628</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>141085.88125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>139101.21434</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>146322.179</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5909.174</v>
+        <v>6724.610519999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4319.62016</v>
+        <v>5094.55933</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5872.275460000001</v>
+        <v>6601.733980000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5823.151720000001</v>
+        <v>7452.219990000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6393.94085</v>
+        <v>6686.804359999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>9131.230139999998</v>
+        <v>9633.33592</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>7640.54716</v>
+        <v>8632.747240000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>16954.28205</v>
+        <v>17632.91321</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>25722.12899</v>
+        <v>28609.47988</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>25391.21754</v>
+        <v>26841.15815000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>34653.59833</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38315.94375999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>24080.578</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>380722.1691</v>
+        <v>405937.97763</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>404113.90309</v>
+        <v>424354.02227</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>431410.69971</v>
+        <v>449357.08999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>433122.9183</v>
+        <v>465286.95082</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>635800.04866</v>
+        <v>692935.5456800001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>684206.19594</v>
+        <v>742198.09366</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>731517.44946</v>
+        <v>820423.89227</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>737654.5577100001</v>
+        <v>832610.3213999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>770586.64971</v>
+        <v>875184.4527799999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1880957.15201</v>
+        <v>1972529.58927</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2064283.74563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2174094.66794</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2617456.909</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>259664.76004</v>
+        <v>291078.64033</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>288188.96958</v>
+        <v>315408.73075</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>331345.66415</v>
+        <v>362372.4242</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>329198.0514299999</v>
+        <v>365401.8878900001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>457638.17626</v>
+        <v>500471.31722</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>496279.88299</v>
+        <v>535419.6598800001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>520808.7351</v>
+        <v>570639.70721</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>539728.9624099999</v>
+        <v>604990.59453</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>547746.18414</v>
+        <v>595916.78524</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1170092.9151</v>
+        <v>1188338.66923</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1251938.32977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1300498.17934</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1464495.787</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3022.51334</v>
+        <v>3026.22368</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4336.066890000001</v>
+        <v>4255.03594</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4323.07214</v>
+        <v>4316.567379999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3819.83168</v>
+        <v>4271.04509</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4880.16167</v>
+        <v>5275.184099999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5550.66955</v>
+        <v>6064.22681</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4078.48253</v>
+        <v>5533.71774</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3388.202590000001</v>
+        <v>4827.186479999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>4067.38354</v>
+        <v>3847.18185</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>13769.51977</v>
+        <v>14636.89035</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15228.02121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15746.96928</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>17679.176</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>94682.80283000002</v>
+        <v>104299.90475</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>112072.15438</v>
+        <v>122888.15802</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>139986.6052</v>
+        <v>154066.33621</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>127392.08294</v>
+        <v>144869.60308</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>175937.59414</v>
+        <v>196814.20449</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>184230.86127</v>
+        <v>205219.53564</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>190765.93405</v>
+        <v>215134.82944</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>178735.3698</v>
+        <v>210662.81243</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>185237.00882</v>
+        <v>206255.40669</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>488637.8979</v>
+        <v>505645.38985</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>493500.0746400001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>516516.83436</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>547357.976</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>161959.44387</v>
+        <v>183752.5119</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>171780.74831</v>
+        <v>188265.53679</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>187035.98681</v>
+        <v>203989.52061</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>197986.13681</v>
+        <v>216261.23972</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>276820.42045</v>
+        <v>298381.92863</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>306498.35217</v>
+        <v>324135.89743</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>325964.31852</v>
+        <v>349971.16003</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>357605.39002</v>
+        <v>389500.59562</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>358441.79178</v>
+        <v>385814.1967</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>667685.49743</v>
+        <v>668056.3890300001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>743210.23392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>768234.3757000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>899458.635</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>121057.40906</v>
+        <v>114859.3373</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>115924.93351</v>
+        <v>108945.29152</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>100065.03556</v>
+        <v>86984.66578999998</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>103924.86687</v>
+        <v>99885.06293</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>178161.8724</v>
+        <v>192464.22846</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>187926.31295</v>
+        <v>206778.43378</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>210708.71436</v>
+        <v>249784.18506</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>197925.5953</v>
+        <v>227619.72687</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>222840.46557</v>
+        <v>279267.66754</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>710864.23691</v>
+        <v>784190.92004</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>812345.4158600002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>873596.4885999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1152961.122</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>31414.79856</v>
+        <v>76671.05624999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>29636.62006</v>
+        <v>73084.51492</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>33189.81565</v>
+        <v>99689.64442</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>21198.57144</v>
+        <v>77834.42168000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>45809.96058000001</v>
+        <v>107927.05185</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>42241.11353</v>
+        <v>56316.76610999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>74801.98668999999</v>
+        <v>99002.15818</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>54563.51647</v>
+        <v>67665.59612</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>60967.26556</v>
+        <v>83432.70426</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>508531.8262899999</v>
+        <v>567705.62733</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>239727.30739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>279070.60344</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>610373.915</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2688.67491</v>
+        <v>23210.71021</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2163.13139</v>
+        <v>18809.48309</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>359.57471</v>
+        <v>26424.48535</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>532.55353</v>
+        <v>29108.7797</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1626.46293</v>
+        <v>22526.95726</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>292.67445</v>
+        <v>803.80962</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2027.25925</v>
+        <v>2576.63942</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2294.94849</v>
+        <v>2806.1523</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>34.39693999999999</v>
+        <v>3638.5189</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4359.309200000001</v>
+        <v>4349.088309999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>10028.07949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9314.13106</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10380.457</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>130.00325</v>
+        <v>130.00358</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>753.0021899999999</v>
@@ -1840,209 +1856,239 @@
       <c r="M27" s="48" t="n">
         <v>640.58825</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>334.141</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3704.34465</v>
+        <v>12982.0289</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2767.373609999999</v>
+        <v>8729.286280000002</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2960.52968</v>
+        <v>11681.72815</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2989.02353</v>
+        <v>9450.46492</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6377.746939999999</v>
+        <v>9656.506820000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6437.99538</v>
+        <v>5652.334349999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7131.79172</v>
+        <v>8940.397389999998</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4911.51009</v>
+        <v>6488.83321</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6931.48255</v>
+        <v>9576.623049999998</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>22884.03629</v>
+        <v>21616.05449</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>23297.64618</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>30178.01492</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>29169.055</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>316.73826</v>
+        <v>440.32786</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1210.87874</v>
+        <v>1205.69299</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1346.7056</v>
+        <v>1346.80568</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>665.0961500000001</v>
+        <v>665.0950799999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>414.5164599999999</v>
+        <v>419.05373</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>187.99618</v>
+        <v>209.41094</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>67.20685</v>
+        <v>664.72247</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>203.79685</v>
+        <v>154.59154</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>48.00771</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4567.333000000001</v>
+        <v>4611.34845</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1326.87178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1282.50579</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>11852.062</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>529.38714</v>
+        <v>2268.98331</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>648.8916100000001</v>
+        <v>598.6633099999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>748.9523800000002</v>
+        <v>788.1562500000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1137.70092</v>
+        <v>1472.29466</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2118.19987</v>
+        <v>2070.26376</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1325.37953</v>
+        <v>1364.02809</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1020.49692</v>
+        <v>1050.67126</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2545.26635</v>
+        <v>1217.10448</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>678.4011</v>
+        <v>897.48002</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2884.12816</v>
+        <v>5218.467650000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6235.56181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6332.836010000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>15095.299</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>408.62895</v>
+        <v>449.44957</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>267.82973</v>
+        <v>172.30533</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>394.31793</v>
+        <v>567.46258</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>302.64943</v>
+        <v>383.1896599999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>367.93542</v>
+        <v>295.16387</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>499.4670199999999</v>
+        <v>433.93889</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>462.9771500000001</v>
+        <v>421.94346</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>485.34718</v>
+        <v>1230.86446</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>505.94239</v>
+        <v>437.26491</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1961.39947</v>
+        <v>7511.95473</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6003.4422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>13068.58431</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2763.915</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>17685.82873</v>
+        <v>26611.50804</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>15441.77558</v>
+        <v>33155.63065</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>17654.46369</v>
+        <v>48653.42867</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>10377.85862</v>
+        <v>25858.29863</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>27725.51105</v>
+        <v>60144.74866999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23524.33282</v>
+        <v>35156.72872</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>52839.71976000001</v>
+        <v>72692.09692</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>29618.28603</v>
+        <v>42739.64648</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>40346.9028</v>
+        <v>57473.46599</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>440328.42391</v>
+        <v>493750.59383</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>164642.66255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>185114.29275</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>502758.956</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>51.24771</v>
+        <v>401.3019399999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>1.04951</v>
@@ -2054,43 +2100,48 @@
         <v>0.17455</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>82.98845999999999</v>
+        <v>314.86445</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>125.23593</v>
+        <v>480.53822</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>53.27627</v>
+        <v>173.48744</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>169.90839</v>
+        <v>402.51769</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>154.66501</v>
+        <v>501.6835</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>3292.26866</v>
+        <v>3378.730579999999</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2296.48563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2204.17858</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2730.671</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>3.66752</v>
+        <v>3.6643</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>40.73149</v>
+        <v>38.49366000000001</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>50.71423</v>
+        <v>50.71401</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>53.34929999999999</v>
+        <v>64.44167999999999</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>30.95164</v>
@@ -2111,292 +2162,332 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>0.15374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6026.280690000001</v>
+        <v>10303.08212</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7094.9584</v>
+        <v>10373.9101</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9655.5725</v>
+        <v>10157.8788</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5140.165410000001</v>
+        <v>10831.6828</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7065.64781</v>
+        <v>12468.54165</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>9718.028969999999</v>
+        <v>12085.9737</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>10421.43111</v>
+        <v>11704.37216</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>14267.37066</v>
+        <v>12558.80353</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>12234.11754</v>
+        <v>10826.31066</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>28254.9276</v>
+        <v>27269.38929</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>25255.81576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>30935.47177</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>35289.359</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>29918.65906</v>
+        <v>42771.56208</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>22775.14526</v>
+        <v>41946.22775</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>28800.49128</v>
+        <v>43521.32629</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>19327.21558</v>
+        <v>37155.29186</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>51108.81344</v>
+        <v>90004.09030999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>41264.96903</v>
+        <v>50885.29075</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>63328.79525</v>
+        <v>85636.10006</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>54894.99083</v>
+        <v>69554.65624000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>51133.14384</v>
+        <v>65661.26642999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>487262.86473</v>
+        <v>552887.33587</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>252149.77897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>276001.31229</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>641611.327</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>686.78486</v>
+        <v>707.7299400000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>849.1444399999999</v>
+        <v>890.93831</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>900.67773</v>
+        <v>1017.86001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>971.1944</v>
+        <v>959.94541</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1184.62096</v>
+        <v>1342.46129</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1151.13094</v>
+        <v>1075.39618</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>372.36837</v>
+        <v>1187.08882</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1168.10586</v>
+        <v>1741.69688</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>868.93235</v>
+        <v>964.3088700000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6156.47263</v>
+        <v>8789.493669999998</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9108.580149999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12539.8674</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9563.177</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>7278.150439999999</v>
+        <v>9297.023019999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5189.132799999999</v>
+        <v>5389.83215</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3067.98479</v>
+        <v>2953.07444</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4962.429099999999</v>
+        <v>5406.019439999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9893.622289999999</v>
+        <v>10585.59028</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9606.90581</v>
+        <v>10462.41803</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5704.54515</v>
+        <v>8366.83783</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>18766.99093</v>
+        <v>20002.23841</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5610.97721</v>
+        <v>6501.199119999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>24967.16632</v>
+        <v>25788.96587</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>37649.76882</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>39645.67072</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>26450.358</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>61.64209</v>
+        <v>706.76287</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>81.98223999999999</v>
+        <v>67.75619</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>52.60043</v>
+        <v>34.80563000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6.02963</v>
+        <v>6.560020000000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>12.33258</v>
+        <v>11.47587</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>203.35029</v>
+        <v>203.32255</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>192.33909</v>
+        <v>99.92018999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>208.69196</v>
+        <v>150.62752</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0.25151</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>240.37446</v>
+        <v>7140.66635</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>948.04995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3027.57222</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>263.179</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>20074.42198</v>
+        <v>28014.60034</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>13547.69019</v>
+        <v>30943.20394</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>20977.15614</v>
+        <v>35719.64318</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10098.20957</v>
+        <v>27728.2181</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>35571.72992000001</v>
+        <v>70809.05927000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>25562.68171</v>
+        <v>34801.64161</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>53993.66049</v>
+        <v>72548.66137</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>31942.90627</v>
+        <v>44727.29404</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>42136.57595000001</v>
+        <v>55077.80314999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>445004.8876599999</v>
+        <v>500352.44939</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>188900.51391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>202306.9955</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>590691.0159999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>41.29663000000001</v>
+        <v>43.67348</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>20.08947</v>
+        <v>19.16147</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>6.10274</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1.1775</v>
+        <v>4.93088</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>321.22029</v>
+        <v>602.8869</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>97.39019999999999</v>
+        <v>395.11206</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>92.56883000000001</v>
+        <v>100.27652</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>247.75108</v>
+        <v>361.57756</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>85.40199999999999</v>
+        <v>336.60303</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2222.26341</v>
+        <v>2172.26061</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>3803.280109999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>4704.869</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>36.45557</v>
+        <v>23.35311</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>0.00253</v>
+        <v>0.0025</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>7.08964</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>5.9322</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>21.40625</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1739.90749</v>
+        <v>3978.41932</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3087.10359</v>
+        <v>4635.33319</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3788.87981</v>
+        <v>3788.85339</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3239.02098</v>
+        <v>3000.46361</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4100.84171</v>
+        <v>6628.17101</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4389.33996</v>
+        <v>3693.2302</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2973.31332</v>
+        <v>3333.31533</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2560.54473</v>
+        <v>2565.28963</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2431.00482</v>
+        <v>2781.10075</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8671.70025</v>
+        <v>8643.499980000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11718.17978</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>14656.52009</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9938.727999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>38821.81868</v>
+        <v>64149.01693000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>33622.65604</v>
+        <v>50071.87819</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>39337.28584</v>
+        <v>47416.44172</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>40296.77083000001</v>
+        <v>49702.98067</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>54212.13381</v>
+        <v>79038.90048000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>59748.95871000001</v>
+        <v>75599.77321000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>67027.36242999999</v>
+        <v>90373.88050999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>80988.03245999999</v>
+        <v>109779.74554</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>66489.40754</v>
+        <v>93866.95292</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>290801.01535</v>
+        <v>327066.69789</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>282925.55152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>311100.29159</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>252821.748</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>37928.3969</v>
+        <v>46428.12338</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>32375.40786</v>
+        <v>38413.37525</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>38390.78175</v>
+        <v>44306.53435</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>39231.72684</v>
+        <v>47438.63915</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>51719.9062</v>
+        <v>65883.13184999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>57436.34199</v>
+        <v>70465.06392000002</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>64531.31125999999</v>
+        <v>85243.64467000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>79402.10016999999</v>
+        <v>106019.73013</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>63087.81989999999</v>
+        <v>87793.79826</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>274959.40879</v>
+        <v>306183.82367</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>266458.06602</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>290760.7694099999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>233666.171</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>893.4217799999999</v>
+        <v>17720.89355</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1247.24818</v>
+        <v>11658.50294</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>946.50409</v>
+        <v>3109.90737</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1065.04399</v>
+        <v>2264.34152</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2492.22761</v>
+        <v>13155.76863</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2312.61672</v>
+        <v>5134.70929</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2496.05117</v>
+        <v>5130.23584</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1585.93229</v>
+        <v>3760.01541</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3401.587640000001</v>
+        <v>6073.154659999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>15841.60656</v>
+        <v>20882.87422</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>16467.4855</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>20339.52218</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>19155.577</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>83731.72988</v>
+        <v>84609.81454000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>89163.75227000001</v>
+        <v>90011.70050000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>65117.07408999999</v>
+        <v>95736.5422</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>65499.4519</v>
+        <v>90861.21208</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>118650.88573</v>
+        <v>131348.28952</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>129153.49874</v>
+        <v>136610.13593</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>155154.54337</v>
+        <v>172776.36267</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>116606.08848</v>
+        <v>115950.92121</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>166185.17975</v>
+        <v>203172.15245</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>441332.18312</v>
+        <v>471942.51361</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>516997.3927600001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>565565.4881599999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>868901.9620000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>13070.00057</v>
+        <v>13761.28443</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>14134.57332</v>
+        <v>12498.53258</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>14713.96089</v>
+        <v>16736.75447</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>20244.74564</v>
+        <v>17062.78553</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>26843.28932</v>
+        <v>26295.7339</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>19362.12369</v>
+        <v>27278.12522</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>20634.09213</v>
+        <v>28014.49711</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>26169.06873</v>
+        <v>37102.27405</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>26774.16438</v>
+        <v>59899.89444</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>64789.86352000001</v>
+        <v>64289.58932</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>68767.64017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>69719.87192000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>69237.57399999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>881.0178000000001</v>
+        <v>1009.78741</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>315.56743</v>
+        <v>337.37819</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>133.74465</v>
+        <v>97.39698</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>326.4831</v>
+        <v>349.04194</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>168.15159</v>
+        <v>156.87959</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>144.17091</v>
+        <v>154.71022</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>610.70743</v>
+        <v>572.5217299999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1635.7727</v>
+        <v>1740.34059</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1279.22555</v>
+        <v>1284.29666</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2057.01092</v>
+        <v>2086.7049</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>412.73487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>626.1408300000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>644.872</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>12188.98277</v>
+        <v>12751.49702</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>13819.00589</v>
+        <v>12161.15439</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>14580.21624</v>
+        <v>16639.35749</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19918.26254</v>
+        <v>16713.74359</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>26675.13773</v>
+        <v>26138.85431</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>19217.95278</v>
+        <v>27123.415</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>20023.3847</v>
+        <v>27441.97538</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>24533.29603</v>
+        <v>35361.93345999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>25494.93883</v>
+        <v>58615.59778</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>62732.8526</v>
+        <v>62202.88442</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>68354.9053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>69093.73109</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>68592.702</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>11790.06947</v>
+        <v>12908.38347</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11951.84903</v>
+        <v>13947.66111</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>57703.59724</v>
+        <v>59586.62981</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11898.02191</v>
+        <v>14583.06122</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24022.0279</v>
+        <v>22253.31467</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>64249.96805</v>
+        <v>59380.25288</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19798.48332</v>
+        <v>27762.51661</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>66670.34348000001</v>
+        <v>77143.03346999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>24412.18074</v>
+        <v>40316.16295</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>107653.58919</v>
+        <v>103277.86554</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>59968.09115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>82360.97593</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>138349.139</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>994.12297</v>
+        <v>1899.08547</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>871.3489599999999</v>
+        <v>1535.14618</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1439.30137</v>
+        <v>2181.3917</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1537.73405</v>
+        <v>2945.25302</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1092.46695</v>
+        <v>4546.87873</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1800.0527</v>
+        <v>1789.72342</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3054.94451</v>
+        <v>3407.51122</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3222.19597</v>
+        <v>3700.01837</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2573.62593</v>
+        <v>3704.433210000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5654.532440000001</v>
+        <v>4284.42478</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6732.236459999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>18939.29489</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>35766.097</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>664.9482099999998</v>
+        <v>703.52214</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>639.87354</v>
+        <v>536.93304</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>457.8800900000001</v>
+        <v>340.86389</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>314.98355</v>
+        <v>510.88188</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>820.2136</v>
+        <v>635.95696</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1446.02096</v>
+        <v>2668.66756</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>942.8759299999999</v>
+        <v>889.6285899999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1172.53961</v>
+        <v>1440.82834</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>481.24501</v>
+        <v>389.92178</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1720.38966</v>
+        <v>1768.91511</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1119.82365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1182.18718</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>51261.794</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10130.99829</v>
+        <v>10305.77586</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>10440.62653</v>
+        <v>11875.58189</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>55806.41578</v>
+        <v>57064.37422000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>10045.30431</v>
+        <v>11126.92632</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>22109.34735</v>
+        <v>17070.47898</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>61003.89438999999</v>
+        <v>54921.8619</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>15800.66288</v>
+        <v>23465.3768</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>62275.6079</v>
+        <v>72002.18676000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>21357.3098</v>
+        <v>36221.80796</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>100278.66709</v>
+        <v>97224.52565000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>52116.03103999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>62239.49386</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>51321.248</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>85011.66097999999</v>
+        <v>85462.71550000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>91346.47656</v>
+        <v>88562.57197</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>22127.43774</v>
+        <v>52886.66686</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>73846.17563</v>
+        <v>93340.93639</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>121472.14715</v>
+        <v>135390.70875</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>84265.65437999999</v>
+        <v>104508.00827</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>155990.15218</v>
+        <v>173028.34317</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>76104.81372999999</v>
+        <v>75910.16179000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>168547.16339</v>
+        <v>222755.88394</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>398468.4574499999</v>
+        <v>432954.23739</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>525796.94178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>552924.3841499999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>799790.397</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>16759.54914</v>
+        <v>18743.48001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>18402.14002</v>
+        <v>18749.48822</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>18537.49946</v>
+        <v>23979.02654</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>18926.48598</v>
+        <v>19847.69892</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>28915.60272</v>
+        <v>33877.71521</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>28823.28078</v>
+        <v>30504.3317</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33208.28278</v>
+        <v>37605.45359999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>31048.4908</v>
+        <v>34376.34169</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>34439.29954</v>
+        <v>40470.29604</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>94690.9474</v>
+        <v>96232.01281</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>115507.85906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>119764.76696</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>181841.945</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>68252.11184</v>
+        <v>66719.23549000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>72944.33653999999</v>
+        <v>69813.08375000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>3589.93828</v>
+        <v>28907.64032</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>54919.68965</v>
+        <v>73493.23746999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>92556.54443000001</v>
+        <v>101512.99354</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>55442.37360000001</v>
+        <v>74003.67657000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>122781.8694</v>
+        <v>135422.88957</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>45056.32292999999</v>
+        <v>41533.8201</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>134107.86385</v>
+        <v>182285.5879</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>303777.51005</v>
+        <v>336722.22458</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>410289.08272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>433159.61719</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>617948.452</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>996</v>
+        <v>853</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1072</v>
+        <v>908</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1078</v>
+        <v>919</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1084</v>
+        <v>925</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1270</v>
+        <v>1038</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1291</v>
+        <v>1042</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1299</v>
+        <v>1057</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1386</v>
+        <v>1107</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1395</v>
+        <v>1118</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1170</v>
+        <v>990</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1024</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>